--- a/Doc/リファレンス.xlsx
+++ b/Doc/リファレンス.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12345" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="24240" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MY_Controller" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="【Admin】 Auth" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="DB設計" sheetId="3" r:id="rId5"/>
+    <sheet name="【Model】Post" sheetId="6" r:id="rId6"/>
+    <sheet name="【Model】&lt;postType&gt;Blog" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="222">
   <si>
     <t>_render</t>
     <phoneticPr fontId="2"/>
@@ -949,12 +951,805 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>getMeta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>metakey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin or front</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category_slug  =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>creater =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>state =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>createdatetime =&gt; str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id =&gt; int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>categoryId =&gt; int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category =&gt; array(0～n)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getContent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数にmetakeyを指定する事でmetaValを返す</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$this-&gt;showTyoeによってタイトル入力か、文字列表示かのhtmlを返す</t>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$this-&gt;showTyoeによって本文入力か、文字列表示かのhtmlを返す</t>
+    <rPh sb="19" eb="21">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数の条件を使用して記事を取得し、$this-&gt;postに保存する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setShowType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>showType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各コントローラーで設定する形が良いかと思われる</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>str　管理側=&gt;admin　公開側=&gt;front</t>
+  </si>
+  <si>
+    <t>str　管理側=&gt;admin　公開側=&gt;front</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CI_Model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得した記事情報が0～ｎの配列に配置される。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配列内は以下のとおり</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n =&gt; array(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n　=&gt; array(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$showType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理側　or　公開側　の制御に使用する</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postの検索条件を設定するpostテーブルのカラムと同じkeyで指定する</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値は以下のとおり</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id =&gt; ''(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_type_id  =&gt; ''(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title  =&gt; ''(str)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content   =&gt; ''(str)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update_id  =&gt; ''(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>state   =&gt; 'public'(str)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_id  =&gt; ''(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_datetime  =&gt; ''(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>del_flg  =&gt; '0'(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>serch</t>
+  </si>
+  <si>
+    <t>serch</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blog</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_type_id  =&gt; '1'(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$condition_ori</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category_id =&gt; ''(int)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$this-&gt;search()関数実行時に$this-&gt;condition_oriとマージする</t>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値は$this-&gt;condition_oriと同じ</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$meta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type =&gt; input or text or select or multpull or checkbox or radio or wisy or image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>attra =&gt; array()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>val =&gt; str(初期値)　取得時はDB値でDB値が無ければ初期値のまま</t>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択肢val =&gt; 選択肢表示文字列</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>option =&gt; array(　　select or multpull or checkbox or radio の時のみ使用　</t>
+    <rPh sb="59" eb="60">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array() $this-&gt;condition_oriと$this-&gt;conditionとマージし、検索条件として使用する。</t>
+    <rPh sb="51" eb="53">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$this-&gt;showTyoeによってタイトル入力か、文字列表示かのhtmlを返す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$this-&gt;postのkey0～nを指定する。</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rules =&gt; array(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>codeigniter formvalidationライブラリーのルールで記載する。</t>
+    <rPh sb="37" eb="39">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>),</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>'field'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 'password',</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">label' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>',</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">rules' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 'required',</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">errors' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">required' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '%s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は必須です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>',</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>metaデータの設定を記載する。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>savePost</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postsテーブルに対して$dataのkeyとvalを使ってインサート文を作成する</t>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,6 +1826,36 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1202,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,6 +2119,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2091,17 +2958,17 @@
       <selection activeCell="AG41" sqref="AG41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="72" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="21">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -2125,7 +2992,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2169,7 +3036,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2184,7 +3051,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -2230,7 +3097,7 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -2278,7 +3145,7 @@
       <c r="AJ8" s="9"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +3193,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +3241,7 @@
       <c r="AJ10" s="9"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40">
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2412,7 +3279,7 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40">
       <c r="B12" s="6"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2450,7 +3317,7 @@
       <c r="AJ12" s="9"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2494,7 +3361,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
@@ -2543,7 +3410,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="5"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40">
       <c r="B21" s="13" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +3461,7 @@
       <c r="AM21" s="14"/>
       <c r="AN21" s="15"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2637,7 +3504,7 @@
       <c r="AM22" s="17"/>
       <c r="AN22" s="18"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -2680,7 +3547,7 @@
       <c r="AM23" s="20"/>
       <c r="AN23" s="21"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40">
       <c r="B24" s="6"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2721,7 +3588,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="7"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40">
       <c r="B25" s="6"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2762,7 +3629,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40">
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2803,7 +3670,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40">
       <c r="B27" s="6"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2844,7 +3711,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40">
       <c r="B28" s="6"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2885,7 +3752,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40">
       <c r="B29" s="6"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2926,7 +3793,7 @@
       <c r="AM29" s="9"/>
       <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40">
       <c r="B30" s="6"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2967,7 +3834,7 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40">
       <c r="B31" s="6"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3008,7 +3875,7 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40">
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3049,7 +3916,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="7"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40">
       <c r="B33" s="6"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3090,7 +3957,7 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -3154,17 +4021,17 @@
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="72" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="21">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -3188,7 +4055,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3232,7 +4099,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3247,7 +4114,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +4160,7 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40">
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3331,7 +4198,7 @@
       <c r="AJ8" s="9"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40">
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
@@ -3379,7 +4246,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -3427,7 +4294,7 @@
       <c r="AJ10" s="9"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40">
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3465,7 +4332,7 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40">
       <c r="B12" s="6"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3503,7 +4370,7 @@
       <c r="AJ12" s="9"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -3547,7 +4414,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +4461,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="5"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40">
       <c r="B21" s="13" t="s">
         <v>51</v>
       </c>
@@ -3639,7 +4506,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="7"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3682,7 +4549,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="7"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -3723,7 +4590,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="7"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40">
       <c r="B24" s="6"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -3764,7 +4631,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="7"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40">
       <c r="B25" s="6"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -3805,7 +4672,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40">
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -3846,7 +4713,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40">
       <c r="B27" s="6"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3887,7 +4754,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40">
       <c r="B28" s="6"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3928,7 +4795,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40">
       <c r="B29" s="6"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3969,7 +4836,7 @@
       <c r="AM29" s="9"/>
       <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40">
       <c r="B30" s="6"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4010,7 +4877,7 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40">
       <c r="B31" s="6"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -4051,7 +4918,7 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40">
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4092,7 +4959,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="7"/>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:40">
       <c r="B33" s="6"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -4133,7 +5000,7 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:40">
       <c r="B34" s="28" t="s">
         <v>50</v>
       </c>
@@ -4153,21 +5020,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY13" sqref="AY13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="72" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="21">
       <c r="A1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -4191,7 +5058,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4235,7 +5102,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4250,7 +5117,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4296,7 +5163,7 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40">
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4334,7 +5201,7 @@
       <c r="AJ8" s="9"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40">
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4372,7 +5239,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40">
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4410,7 +5277,7 @@
       <c r="AJ10" s="9"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40">
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4448,7 +5315,7 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40">
       <c r="B12" s="6"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4486,7 +5353,7 @@
       <c r="AJ12" s="9"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -4530,7 +5397,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
@@ -4577,7 +5444,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="5"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -4618,7 +5485,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="7"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -4659,7 +5526,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="7"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -4700,7 +5567,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="7"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40">
       <c r="B24" s="6"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4741,7 +5608,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="7"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40">
       <c r="B25" s="6"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4782,7 +5649,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40">
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4823,7 +5690,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40">
       <c r="B27" s="6"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4864,7 +5731,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40">
       <c r="B28" s="6"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4905,7 +5772,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40">
       <c r="B29" s="6"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4946,7 +5813,7 @@
       <c r="AM29" s="9"/>
       <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40">
       <c r="B30" s="6"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4987,7 +5854,7 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40">
       <c r="B31" s="6"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -5028,7 +5895,7 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40">
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5069,7 +5936,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="7"/>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:40">
       <c r="B33" s="6"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -5110,12 +5977,12 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:40">
       <c r="B34" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:40">
       <c r="B36" s="29" t="s">
         <v>57</v>
       </c>
@@ -5139,7 +6006,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5150,18 +6017,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="17.25">
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5172,7 +6039,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12">
       <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
@@ -5183,7 +6050,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12">
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
@@ -5204,7 +6071,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12">
       <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
@@ -5225,7 +6092,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
@@ -5246,7 +6113,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="6" t="s">
         <v>110</v>
       </c>
@@ -5267,7 +6134,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12">
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
@@ -5288,7 +6155,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12">
       <c r="B10" s="6" t="s">
         <v>111</v>
       </c>
@@ -5309,7 +6176,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
@@ -5322,7 +6189,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -5335,7 +6202,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
@@ -5348,7 +6215,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
@@ -5361,7 +6228,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="17.25">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -5372,7 +6239,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
@@ -5383,7 +6250,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
@@ -5404,7 +6271,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -5425,7 +6292,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="6" t="s">
         <v>61</v>
       </c>
@@ -5446,7 +6313,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="6" t="s">
         <v>112</v>
       </c>
@@ -5467,7 +6334,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="6" t="s">
         <v>66</v>
       </c>
@@ -5488,7 +6355,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="6" t="s">
         <v>119</v>
       </c>
@@ -5509,7 +6376,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="6" t="s">
         <v>123</v>
       </c>
@@ -5530,7 +6397,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="6" t="s">
         <v>124</v>
       </c>
@@ -5551,7 +6418,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="6" t="s">
         <v>127</v>
       </c>
@@ -5572,7 +6439,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="6" t="s">
         <v>100</v>
       </c>
@@ -5593,7 +6460,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
@@ -5606,7 +6473,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
@@ -5619,7 +6486,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
@@ -5632,7 +6499,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="6"/>
@@ -5645,7 +6512,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="38" spans="2:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" ht="17.25">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
@@ -5656,7 +6523,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
@@ -5667,7 +6534,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="4" t="s">
         <v>26</v>
       </c>
@@ -5688,7 +6555,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="11"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
@@ -5709,7 +6576,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="6" t="s">
         <v>87</v>
       </c>
@@ -5730,7 +6597,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="6" t="s">
         <v>88</v>
       </c>
@@ -5751,7 +6618,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="6" t="s">
         <v>89</v>
       </c>
@@ -5772,7 +6639,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="6" t="s">
         <v>100</v>
       </c>
@@ -5793,7 +6660,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
@@ -5806,7 +6673,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
@@ -5819,7 +6686,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
@@ -5832,7 +6699,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
@@ -5845,7 +6712,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -5858,7 +6725,7 @@
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -5871,7 +6738,7 @@
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
     </row>
-    <row r="53" spans="2:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" ht="17.25">
       <c r="B53" s="3" t="s">
         <v>25</v>
       </c>
@@ -5882,7 +6749,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
@@ -5893,7 +6760,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="4" t="s">
         <v>26</v>
       </c>
@@ -5914,7 +6781,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="6" t="s">
         <v>114</v>
       </c>
@@ -5935,7 +6802,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="6" t="s">
         <v>105</v>
       </c>
@@ -5956,7 +6823,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
@@ -5969,7 +6836,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
@@ -5982,7 +6849,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12">
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
@@ -5995,7 +6862,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12">
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
@@ -6008,7 +6875,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12">
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
@@ -6021,7 +6888,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12">
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
@@ -6034,7 +6901,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12">
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
@@ -6047,7 +6914,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12">
       <c r="B66" s="30" t="s">
         <v>115</v>
       </c>
@@ -6062,7 +6929,7 @@
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
     </row>
-    <row r="69" spans="2:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" ht="17.25">
       <c r="B69" s="3" t="s">
         <v>25</v>
       </c>
@@ -6073,7 +6940,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12">
       <c r="B70" s="3" t="s">
         <v>37</v>
       </c>
@@ -6084,7 +6951,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12">
       <c r="B72" s="4" t="s">
         <v>26</v>
       </c>
@@ -6105,7 +6972,7 @@
       <c r="K72" s="10"/>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12">
       <c r="B73" s="6" t="s">
         <v>28</v>
       </c>
@@ -6126,7 +6993,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12">
       <c r="B74" s="6" t="s">
         <v>61</v>
       </c>
@@ -6147,7 +7014,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12">
       <c r="B75" s="6" t="s">
         <v>71</v>
       </c>
@@ -6168,7 +7035,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12">
       <c r="B76" s="6" t="s">
         <v>76</v>
       </c>
@@ -6189,7 +7056,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:12">
       <c r="B77" s="6" t="s">
         <v>78</v>
       </c>
@@ -6210,7 +7077,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12">
       <c r="B78" s="6" t="s">
         <v>100</v>
       </c>
@@ -6231,7 +7098,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:12">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="6"/>
@@ -6244,7 +7111,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:12">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6"/>
@@ -6257,7 +7124,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
@@ -6275,4 +7142,4326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="AZ62" sqref="AZ62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="51" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="21">
+      <c r="A1" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+    </row>
+    <row r="6" spans="1:40" s="2" customFormat="1"/>
+    <row r="7" spans="1:40" s="2" customFormat="1">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="5"/>
+    </row>
+    <row r="8" spans="1:40" s="2" customFormat="1">
+      <c r="B8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="15"/>
+    </row>
+    <row r="9" spans="1:40" s="2" customFormat="1">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="18"/>
+    </row>
+    <row r="10" spans="1:40" s="2" customFormat="1">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="18"/>
+    </row>
+    <row r="11" spans="1:40" s="2" customFormat="1">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="18"/>
+    </row>
+    <row r="12" spans="1:40" s="2" customFormat="1">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="18"/>
+    </row>
+    <row r="13" spans="1:40" s="2" customFormat="1">
+      <c r="B13" s="34"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="35"/>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="35"/>
+    </row>
+    <row r="15" spans="1:40" s="2" customFormat="1">
+      <c r="B15" s="34"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="35"/>
+    </row>
+    <row r="16" spans="1:40" s="2" customFormat="1">
+      <c r="B16" s="34"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="35"/>
+    </row>
+    <row r="17" spans="2:37">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="18"/>
+    </row>
+    <row r="18" spans="2:37">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="18"/>
+    </row>
+    <row r="19" spans="2:37">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="18"/>
+    </row>
+    <row r="20" spans="2:37">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="18"/>
+    </row>
+    <row r="21" spans="2:37">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="18"/>
+    </row>
+    <row r="22" spans="2:37">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="18"/>
+    </row>
+    <row r="23" spans="2:37">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="18"/>
+    </row>
+    <row r="24" spans="2:37">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="21"/>
+    </row>
+    <row r="25" spans="2:37">
+      <c r="B25" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="15"/>
+    </row>
+    <row r="26" spans="2:37">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="21"/>
+    </row>
+    <row r="27" spans="2:37">
+      <c r="B27" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="15"/>
+    </row>
+    <row r="28" spans="2:37">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="18"/>
+    </row>
+    <row r="29" spans="2:37">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="18"/>
+    </row>
+    <row r="30" spans="2:37">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="18"/>
+    </row>
+    <row r="31" spans="2:37">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="18"/>
+    </row>
+    <row r="32" spans="2:37">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="18"/>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="18"/>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="18"/>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="B35" s="39"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="18"/>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="18"/>
+    </row>
+    <row r="37" spans="1:40">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="18"/>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="18"/>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="18"/>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="21"/>
+    </row>
+    <row r="41" spans="1:40">
+      <c r="B41" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" t="s">
+        <v>192</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="15"/>
+    </row>
+    <row r="42" spans="1:40">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="21"/>
+    </row>
+    <row r="43" spans="1:40">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+    </row>
+    <row r="45" spans="1:40">
+      <c r="A45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+    </row>
+    <row r="47" spans="1:40">
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="5"/>
+    </row>
+    <row r="48" spans="1:40">
+      <c r="B48" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="15"/>
+      <c r="M48" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="7"/>
+    </row>
+    <row r="49" spans="2:37">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18"/>
+      <c r="M49" t="s">
+        <v>150</v>
+      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="7"/>
+    </row>
+    <row r="50" spans="2:37">
+      <c r="B50" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="7"/>
+    </row>
+    <row r="51" spans="2:37">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="7"/>
+    </row>
+    <row r="52" spans="2:37">
+      <c r="B52" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="7"/>
+    </row>
+    <row r="53" spans="2:37">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="7"/>
+    </row>
+    <row r="54" spans="2:37">
+      <c r="B54" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="7"/>
+    </row>
+    <row r="55" spans="2:37">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="7"/>
+    </row>
+    <row r="56" spans="2:37">
+      <c r="B56" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="V81" sqref="V81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="51" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="21">
+      <c r="A1" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+    </row>
+    <row r="6" spans="1:40" s="2" customFormat="1"/>
+    <row r="7" spans="1:40" s="2" customFormat="1">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="5"/>
+    </row>
+    <row r="8" spans="1:40" s="2" customFormat="1">
+      <c r="B8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="15"/>
+    </row>
+    <row r="9" spans="1:40" s="2" customFormat="1">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="18"/>
+    </row>
+    <row r="10" spans="1:40" s="2" customFormat="1">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="18"/>
+    </row>
+    <row r="11" spans="1:40" s="2" customFormat="1">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="18"/>
+    </row>
+    <row r="12" spans="1:40" s="2" customFormat="1">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="18"/>
+    </row>
+    <row r="13" spans="1:40" s="2" customFormat="1">
+      <c r="B13" s="34"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="35"/>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="35"/>
+    </row>
+    <row r="15" spans="1:40" s="2" customFormat="1">
+      <c r="B15" s="34"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="35"/>
+    </row>
+    <row r="16" spans="1:40" s="2" customFormat="1">
+      <c r="B16" s="34"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="35"/>
+    </row>
+    <row r="17" spans="2:37">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="18"/>
+    </row>
+    <row r="18" spans="2:37">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="18"/>
+    </row>
+    <row r="19" spans="2:37">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="18"/>
+    </row>
+    <row r="20" spans="2:37">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="18"/>
+    </row>
+    <row r="21" spans="2:37">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="18"/>
+    </row>
+    <row r="22" spans="2:37">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="18"/>
+    </row>
+    <row r="23" spans="2:37">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="18"/>
+    </row>
+    <row r="24" spans="2:37">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="21"/>
+    </row>
+    <row r="25" spans="2:37">
+      <c r="B25" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="15"/>
+    </row>
+    <row r="26" spans="2:37">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="21"/>
+    </row>
+    <row r="27" spans="2:37">
+      <c r="B27" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="15"/>
+    </row>
+    <row r="28" spans="2:37">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="18"/>
+    </row>
+    <row r="29" spans="2:37">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="18"/>
+    </row>
+    <row r="30" spans="2:37">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="18"/>
+    </row>
+    <row r="31" spans="2:37">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="21"/>
+    </row>
+    <row r="32" spans="2:37">
+      <c r="B32" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="15"/>
+    </row>
+    <row r="33" spans="2:37">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="15"/>
+    </row>
+    <row r="34" spans="2:37">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="18"/>
+    </row>
+    <row r="35" spans="2:37">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="18"/>
+    </row>
+    <row r="36" spans="2:37">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="18"/>
+    </row>
+    <row r="37" spans="2:37">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="18"/>
+    </row>
+    <row r="38" spans="2:37">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="18"/>
+    </row>
+    <row r="39" spans="2:37">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="18"/>
+    </row>
+    <row r="40" spans="2:37">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="18"/>
+    </row>
+    <row r="41" spans="2:37">
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="18"/>
+    </row>
+    <row r="42" spans="2:37">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="18"/>
+    </row>
+    <row r="43" spans="2:37">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="18"/>
+    </row>
+    <row r="44" spans="2:37">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="18"/>
+    </row>
+    <row r="45" spans="2:37">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="R45" s="17"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="18"/>
+    </row>
+    <row r="46" spans="2:37">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="18"/>
+    </row>
+    <row r="47" spans="2:37">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="18"/>
+    </row>
+    <row r="48" spans="2:37">
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="21"/>
+    </row>
+    <row r="53" spans="1:40">
+      <c r="A53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+    </row>
+    <row r="55" spans="1:40">
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="5"/>
+    </row>
+    <row r="56" spans="1:40">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="15"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="9"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40">
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+      <c r="AM57" s="9"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="9"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40">
+      <c r="B59" s="6"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
+      <c r="AM59" s="9"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40">
+      <c r="B60" s="6"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
+      <c r="AM60" s="9"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40">
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="9"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="D71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="D3" location="【Model】Post!A1" display="Post"/>
+    <hyperlink ref="T40" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/リファレンス.xlsx
+++ b/Doc/リファレンス.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="24240" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="24240" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MY_Controller" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
   <si>
     <t>_render</t>
     <phoneticPr fontId="2"/>
@@ -1742,6 +1742,116 @@
     <rPh sb="37" eb="39">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_roles</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示順</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">not_null </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_role</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー,権限紐付けテーブル</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限ID</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">not_null  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id+role_idでPRIMARYとする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>groups_role</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ,権限紐付けテーブル</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>groups_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>groups_id+role_idでPRIMARYとする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループID</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6015,10 +6125,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L81"/>
+  <dimension ref="B2:L119"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7137,6 +7247,428 @@
       <c r="K81" s="9"/>
       <c r="L81" s="7"/>
     </row>
+    <row r="85" spans="2:12" ht="17.25">
+      <c r="B85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="11"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="100" spans="2:12" ht="17.25">
+      <c r="B100" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="11"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" ht="17.25">
+      <c r="B111" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="11"/>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="7"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="7"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="6"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="7"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="7"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7148,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AZ62" sqref="AZ62"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="T75" sqref="T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Doc/リファレンス.xlsx
+++ b/Doc/リファレンス.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="250">
   <si>
     <t>_render</t>
     <phoneticPr fontId="2"/>
@@ -1852,6 +1852,50 @@
   </si>
   <si>
     <t>グループID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>system_setting</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムセッティングテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッティング名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッティング文字列</t>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>keyでPRIMARYとする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category_depth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリーを作成できる階層</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイソウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6125,10 +6169,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L119"/>
+  <dimension ref="B2:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7667,6 +7711,133 @@
     <row r="119" spans="2:12">
       <c r="B119" s="30" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="17.25">
+      <c r="B122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="11"/>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="7"/>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G127" s="7"/>
+      <c r="H127" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="7"/>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="7"/>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="7"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" t="s">
+        <v>248</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
